--- a/medicine/Enfance/Sylvie_Brien/Sylvie_Brien.xlsx
+++ b/medicine/Enfance/Sylvie_Brien/Sylvie_Brien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvie Brien, née au Québec en 1959[1], est une écrivaine québécoise de romans pour adultes et pour les jeunes, spécialisée dans les romans de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvie Brien, née au Québec en 1959, est une écrivaine québécoise de romans pour adultes et pour les jeunes, spécialisée dans les romans de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juriste et notaire de formation, elle exerce le notariat pendant de nombreuses années avant de se consacrer entièrement à l'écriture dans les années 2000. Publiée au Canada et en France par plusieurs éditeurs, dont Gallimard jeunesse et Bayard-Canada, elle est également une Conférencière très en demande. Membre de l’Union des écrivaines et des écrivains québécois (UNEQ) et de Communication-Jeunesse, elle anime des rencontres littéraires pour le programme Culture à l’école. 
 Plusieurs de ses romans sont inscrits aux sélections de Communication-Jeunesse Québec, de la S.D.M., ministère de l’Éducation (Québec), La Joie par les livres (France), Krokalire (France), Le Choix des Libraires (France), Le Libraire (Québec). Ils ont été primés coups de cœur de la revue Lurelu (Québec) ou sélectionnés par la revue Ricochet (France). 
@@ -547,38 +561,228 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages de littérature d'enfance et de jeunesse
-Série Pierrot et le village des fous (réédité sous le vocable Pierrot au village des fous)
-Le Spectre, Montréal, Éditions Porte-bonheur, 2002 ; réédition 2021 chez Joey Cornu éditeur.
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Pierrot et le village des fous (réédité sous le vocable Pierrot au village des fous)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Spectre, Montréal, Éditions Porte-bonheur, 2002 ; réédition 2021 chez Joey Cornu éditeur.
 Les Têtes coupées, Montréal, Éditions Porte-bonheur, 2002 ;
 Zone infinie, Montréal, Éditions Porte-bonheur, 2002
 Le Trésor de Frank, Montréal, Éditions Porte-bonheur, 2002
 Les Lutins de Picardie, Montréal, Éditions Porte-bonheur, 2003
 L’Énigme du Marie la Paix, Montréal, Éditions Porte-bonheur, 2003
-Le Chevalier de l’âne d’or, Montréal, Éditions Porte-bonheur, 2007
-Série Les Enquêtes de Vipérine Maltais
-Mortels Noëls, Paris, Éditions Gallimard jeunesse, coll. Folio Junior, 2018, anciennement coll. « Hors piste » no 23, 2004
+Le Chevalier de l’âne d’or, Montréal, Éditions Porte-bonheur, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les Enquêtes de Vipérine Maltais</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mortels Noëls, Paris, Éditions Gallimard jeunesse, coll. Folio Junior, 2018, anciennement coll. « Hors piste » no 23, 2004
 L’Affaire du collège indien, Paris, Éditions Gallimard jeunesse, coll. « Hors piste » no 35, 2006
 Le Secret du choriste, Paris, Éditions Gallimard jeunesse, coll. « Hors piste » no 50, 2008
-La Voix du diable, Paris, Éditions Gallimard jeunesse, coll. « Hors piste » no 65, 2010
-Série La Bande de la 7e
-La Fenêtre maléfique, Montréal, Éditions Hurtubise HMH, coll. « Caméléon », 2004
+La Voix du diable, Paris, Éditions Gallimard jeunesse, coll. « Hors piste » no 65, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série La Bande de la 7e</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Fenêtre maléfique, Montréal, Éditions Hurtubise HMH, coll. « Caméléon », 2004
 M comme Momie, Montréal, Éditions Hurtubise HMH, coll. « Caméléon », 2005
-La Fosse aux chiffres, Montréal, Éditions Hurtubise HMH, coll. « Caméléon », 2007
-Autres ouvrages de littérature d'enfance et de jeunesse
-Aziza la gavée, Montréal, Éditions Porte-Bonheur, hors-collection, novembre 2011 ; réédition sous le titre La Voie de Zahra, Montréal, Bayard-Canada, 2014
+La Fosse aux chiffres, Montréal, Éditions Hurtubise HMH, coll. « Caméléon », 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aziza la gavée, Montréal, Éditions Porte-Bonheur, hors-collection, novembre 2011 ; réédition sous le titre La Voie de Zahra, Montréal, Bayard-Canada, 2014
 Spirit Lake, Paris, Éditions Gallimard-Jeunesse, coll. « Scripto », 2008
 Valentin ni trop petit ni trop grand, Saint-Lambert, Dominique et compagnie, 2015
 16 ans et patriote, Montréal, Bayard-Canada, septembre 2017
 Petit panda : c'est trop injuste !, Dominique et compagnie, 2019
-1,2,3, je boude! Dominique et compagnie, 2020
-Ouvrages littéraires pour adultes
-Béryl, roman, Québec, Éditions du Cram, 2002 ; réédition sous le titre Béryl, la réincarnation d’Élianne, Québec, Jim&amp;Joey Cornu éditeurs, mars 2012
+1,2,3, je boude! Dominique et compagnie, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages littéraires pour adultes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Béryl, roman, Québec, Éditions du Cram, 2002 ; réédition sous le titre Béryl, la réincarnation d’Élianne, Québec, Jim&amp;Joey Cornu éditeurs, mars 2012
 Gaius, à la recherche de Béryl, Québec, Éditions du Cram, 2003 ; réédition sous le titre Gaius, à la recherche de Béryl, Québec Jim&amp;Joey Cornu éditeurs, mars 2012
 Les Templiers du Nouveau Monde, Montréal, Éditions Hurtubise HMH, mai 2006
-L'Homme de Ki, tome 1 et tome 2, Montréal, Maison d'édition St-Laurent, mai 2017
-Courts-métrages et applications mobiles
-16 ans et Patriotes !  Fusion Films 2018 (en ligne)
+L'Homme de Ki, tome 1 et tome 2, Montréal, Maison d'édition St-Laurent, mai 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Brien</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Courts-métrages et applications mobiles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16 ans et Patriotes !  Fusion Films 2018 (en ligne)
 Applications mobiles touristiques et ludiques pour enfants (scénarios créés par Sylvie Brien) [voir en ligne]</t>
         </is>
       </c>
